--- a/프론트앤드 프로그래밍/SQL/필기.xlsx
+++ b/프론트앤드 프로그래밍/SQL/필기.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\장동건\프론트앤드 프로그래밍\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54AC210C-847C-4D28-9276-5FEF23F60A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AF4BF-7AEB-4ED6-A76C-A31FCAFD53D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1380" windowWidth="21600" windowHeight="11370" xr2:uid="{4954A73E-6FBD-46B5-BDC3-4A222A8EEBA7}"/>
+    <workbookView xWindow="12885" yWindow="2430" windowWidth="18765" windowHeight="11370" activeTab="1" xr2:uid="{4954A73E-6FBD-46B5-BDC3-4A222A8EEBA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="4.15" sheetId="1" r:id="rId1"/>
+    <sheet name="4.16" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="312">
   <si>
     <t>* 릴레이션 : 행과 열로 구성된 데이터(테이블)</t>
   </si>
@@ -181,9 +182,6 @@
   </si>
   <si>
     <t xml:space="preserve">                TINYINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        실수</t>
   </si>
   <si>
     <t xml:space="preserve">                DOUBLE</t>
@@ -279,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        정수 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">          예) CHAR(5),  'ab'  : 문자가 2자라고 하더라도 5자의 공간을 할당 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,86 +289,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* 외래키(Foreign key) : 다른 테이블의 데이터를 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+    <t>2. ALTER 문</t>
+  </si>
+  <si>
+    <t>3. DROP 문</t>
+  </si>
+  <si>
+    <t>데이터 조작어(DML) - 검색</t>
+  </si>
+  <si>
+    <t>1. SELECT문의 기본 문법</t>
+  </si>
+  <si>
+    <t>2. SELECT문의 자세한 문법</t>
+  </si>
+  <si>
+    <t>3. SELECT문</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       실수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 테이블의 문법을 변경하는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1) NewBook 테이블에 VARCHAR(13)의 자료형을 가진 isbn을 추가하시오 (ADD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2) NewBook 테이블에 isbn 속성의 데이터 타입을 INTEGER형으로 변경하시오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      (MODIFY, ALTER COLUMN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     ALTER TABLE NewBook MODIFY 컬럼명 자요형 제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  컬럼명 자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                  컴럼명 제약조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3) NewBook 테이블의 isbn 속성을 삭제하시오 (DROP COLUMN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 데이터 베이스 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2) 테이블 삭제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    DROP DATABASE 데이터베이스명;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    DROP TABLE 테이블명;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4) NewBook 테이블의 bookid 속성을 기본키로 변경하시오 (ADD PRIMARY KEY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. WHERE 조건</t>
+  </si>
+  <si>
+    <t>2. ORDER BY</t>
+  </si>
+  <si>
+    <t>3. 집계함수와 GROUP BY</t>
+  </si>
+  <si>
+    <t>4. GROUP BY와 HAVING 절</t>
+  </si>
+  <si>
+    <t>5. 두 개 이상의 테이블에서 SQL 질의</t>
+  </si>
+  <si>
+    <t>8. 집합 연산</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[ 참조 ]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>도메인 무결성 제약조건</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 하는 키</t>
+      <t xml:space="preserve"> : 지정된 자료형으로만 데이터가 입력, 수정 될 수 있도록 제한</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">* 대리키 : 여러 후보키 중에서 기본키로 적합하지 않을 경우 일련번호 같은 형태로 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>[ 대신 ]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>개체 무결성 제약조건</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 할 수 있는 키</t>
+      <t xml:space="preserve"> : 기본키와 과련, 각 개체를 유일하게 구분할 수 있는 제약</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>* 기본키(Primary Key) : 여러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> [ 후보키 중에서 하나 ] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>참조 무결성 제약조건</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>를 선정하여 대표하는 키</t>
+      <t xml:space="preserve"> : 부모 레코드에 자식 레코드가 있으면(참조하고 있으면) 부모 레코드를 삭제 할 수 없게 제한 (외래키 제약 조건)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,7 +480,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -395,7 +492,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -408,105 +506,1944 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>* 기본키(Primary Key) : 여러</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>도메인 무결성 제약조건</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t xml:space="preserve"> [ 후보키 중에서 하나 ] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 지정된 자료형으로만 데이터가 입력, 수정 될 수 있도록 제한</t>
+      <t>를 선정하여 대표하는 키</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t xml:space="preserve">* 대리키 : 여러 후보키 중에서 기본키로 적합하지 않을 경우 일련번호 같은 형태로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>개체 무결성 제약조건</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>[ 대신 ]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 기본키와 과련, 각 개체를 유일하게 구분할 수 있는 제약</t>
+      <t xml:space="preserve"> 할 수 있는 키</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t xml:space="preserve">* 외래키(Foreign key) : 다른 테이블의 데이터를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>참조 무결성 제약조건</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>[ 참조 ]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : 부모 레코드에 자식 레코드가 있으면(참조하고 있으면) 부모 레코드를 삭제 할 수 없게 제한 (외래키 제약 조건)</t>
+      <t xml:space="preserve"> 하는 키</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. ALTER 문</t>
-  </si>
-  <si>
-    <t>3. DROP 문</t>
-  </si>
-  <si>
-    <t>데이터 조작어(DML) - 검색</t>
-  </si>
-  <si>
-    <t>1. SELECT문의 기본 문법</t>
-  </si>
-  <si>
-    <t>2. SELECT문의 자세한 문법</t>
-  </si>
-  <si>
-    <t>3. SELECT문</t>
+    <t xml:space="preserve">        SELECT 조회할 컬럼명, .... FROM 테이블;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                * - 모든 컬럼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT ... FROM 테이블 WHERE 조건식 ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        참고)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                WHERE절 사용되는 연산자 중 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        논리 연산자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                AND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                NOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT [ALL | DISTINCT] 속성이름(들)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                FROM 테이블이름(들)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                [WHERE 검색조건(들)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                [GROUP BY 속성이름]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                [HAVING  검색조건(들)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                [ORDER BY 속성이름 [ASC | DESC]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [ALL | DISTINCT] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ALL : 중복되도 조회 (기본값)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DISTINCT : 중복 없이 조회 </t>
+  </si>
+  <si>
+    <t>1)  가격이 20,000원 미만인 도서를 검색하시오.</t>
+  </si>
+  <si>
+    <t>2) 가격이 10,000원 이상 20,000원 이하인 도서를 검색하시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 컬럼명 BETWEEN A AND B : 컬럼명이 A와 B 사이(A이상 B 이하)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - A, B는 주로 숫자형 또는 날짜형의 자료형인 경우가 많다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) 집합 연산 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        IN  : 요소의 포함 여부 (교집합) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NOT IN : 요소가 포함되어 있지 않는지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UNION : 합집합 (중복 없이 2개의 쿼리 결과를 통합) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UNION ALL : 중복 포함 합집합 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        참고) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Oracle 기준 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        교집합 INTERSECT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        합집합 UNION, UNION ALL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        차집합 MINUS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 출판사가 '굿스포츠' 혹은 '대한미디어'인 도서를 검색하시오.</t>
+  </si>
+  <si>
+    <t>패턴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        컬럼명 LIKE 패턴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                1) LIKE '패턴' -&gt; = '패턴' 비슷하게 동작, 패턴과 일치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                2) LIKE '키워드%'  -&gt; 키워드로 시작하는 패턴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                3) LIKE '%키워드' -&gt; 키워드로 끝나는 패턴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                4) LIKE '%키워드%' -&gt; 키워드가 포함되는 패턴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                5) LIKE '_구%' -&gt; 한글자가 '구' 앞에 있고 시작하는 패턴 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        _ : 한글자</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Book</t>
+  </si>
+  <si>
+    <t>WHERE NOT(publisher = '굿스포츠' or publisher = '대한미디어'</t>
+  </si>
+  <si>
+    <t>OR publisher = '이상미디어');</t>
+  </si>
+  <si>
+    <t>WHERE publisher = '굿스포츠' OR (publisher = '이상미디어' AND price &gt;= 10000);</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Book WHERE bookname LIKE "피겨%";</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Book WHERE bookname LIKE "%단계%";</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Book WHERE bookname LIKE "_구%";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       __ : 2글자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 정렬 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ORDER BY 컬럼명 [ASC | DESC]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ASC - 오름차순 / 기본값, 없는 경우 기본 적용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DESC - 내림차순</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1) 도서를 이름순으로 검색하시오(오름차순).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ORDER BY 컬럼명1 [ASC | DESC], 컬럼명2  [ASC | DESC]; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                컬럼명1로 1차 정렬을 하고, 컬럼명1의 값이 동일한 경우는 컬러명2로 2차 정렬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 집계 함수 : 통계를 위한 함수 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 총합 : SUM(컬럼명) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 평균 : AVG(컬럼명) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 최소값 : MIN(컬럼명) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 최대값 : MAX(컬럼명) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 갯수 : COUNT(컬럼명)  / 컬럼명의 값이 NULL 이 아닌 갯수 / 컬럼명이 *이면 값에 상관없이 전체 갯수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        참고) 별칭(Alias) AS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                컬럼명 AS 컬럼명 별칭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                테이블명 AS 테이블명 별칭 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AS 키워드는 생략 가능!</t>
+  </si>
+  <si>
+    <t>2) GROUP BY : 지정된 컬럼의 같은 값으로 레코드를 묶어주는 기능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        - 집계 함수와 함께 쓰인다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 고객별로 주문한 도서의 총 수량과 총 판매액을 구하시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM Book </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Book WHERE bookname LIKE "%기술";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        집계 함수를 이용한 조건문은 WHERE 절에는 사용 불가!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        HAVING절을 통해서 집계 함수의 조건문을 사용할 수 있다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        주문 합계가 20000만원 이상인 고객별 평균, 합계를 구하시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        관계 : 테이블과 테이블간의 관계</t>
+  </si>
+  <si>
+    <t>6. 조인(JOIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 테이블과 테이블을 서로 연결</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 무작위 순서쌍 데이터 조회, 카티전 프로덕트, 데카르트 곱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 고객과 고객의 주문에 관한 데이터를 고객이름으로 정렬(오름차순)하여 보이시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 고객별로 주문한 모든 도서의 총 판매액을 구하고, 고객이름으로 내림차순 정렬하시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                (조인, GROUP BY, SUM, ORDER BY) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT * FROM Customer, Orders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE Customer.custid = Orders.custid;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL-99  표준  동등 조인(내부 조인)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT * FROM Customer c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        INNER JOIN Orders o </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ON c.custid = o.custid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        INNER JOIN Book b </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ON c.custid = o.custid AND b.bookid = o.bookid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT * FROM Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        INNER JOIN Orders USING(custid);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                - INNER 키워드는 생략 가능!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 외부조인(OUTER JOIN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                - OUTER 키워드는 생략 가능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                - 왼쪽 외부 조인(LEFT OUTER JOIN) : 왼쪽 테이블인 Customer 가 주 테이블(모든 데이터가 조회), Orders는 부가적인 테이블(추가 정보로 있으면 나오고 없으면 NULL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                - 오른쪽 외부 조인(RIGHT OUTER JOIN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. 부속질의(Sub Query) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - SELECT 문 안에 SELECT문을 작성하는 것</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1) 스칼라 부속 질의 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                스칼라(Scala) : 단일값 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                부속질의 결과가 단일값 형태 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2) 인라인 뷰 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3) 상관 부속 질의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 동등 조인(테이블간의 같은 값을 가지고 결합 - 내부 조인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHERE publisher NOT IN ('굿스포츠', '대한미디어', '이상미디어');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Book ORDER BY price ASC;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Book ORDER BY price DESC;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Book ORDER BY price, bookname;</t>
+  </si>
+  <si>
+    <t>COUNT(*) 주문수,</t>
+  </si>
+  <si>
+    <t>SUM(saleprice) 합계,</t>
+  </si>
+  <si>
+    <t>AVG(saleprice) 평균,</t>
+  </si>
+  <si>
+    <t>MIN(saleprice) 최소,</t>
+  </si>
+  <si>
+    <t>MAX(saleprice) 최대</t>
+  </si>
+  <si>
+    <t>FROM Orders;</t>
+  </si>
+  <si>
+    <t>SUM(saleprice) AS '매출 합계', -- AS 키워드는 생략 가능</t>
+  </si>
+  <si>
+    <t>AVG(saleprice) AS '매출 평균'</t>
+  </si>
+  <si>
+    <t>custid,</t>
+  </si>
+  <si>
+    <t>COUNT(*) '총 수량',</t>
+  </si>
+  <si>
+    <t>SUBSTR(orderdate, 1, 7) 월,</t>
+  </si>
+  <si>
+    <t>SUM(saleprice) '총 판매량'</t>
+  </si>
+  <si>
+    <t>FROM Orders</t>
+  </si>
+  <si>
+    <t>GROUP BY custid;</t>
+  </si>
+  <si>
+    <t>GROUP BY custid, SUBSTR(orderdate, 1, 7);</t>
+  </si>
+  <si>
+    <t>AVG(saleprice) 평균</t>
+  </si>
+  <si>
+    <t>GROUP BY custid</t>
+  </si>
+  <si>
+    <t>HAVING COUNT(*) &gt; 2;</t>
+  </si>
+  <si>
+    <t>HAVING SUM(saleprice) &gt;= 20000;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Customer, Orders</t>
+  </si>
+  <si>
+    <t>WHERE Customer.custid = Orders.custid;</t>
+  </si>
+  <si>
+    <t>SELECT c.custid, name, saleprice , orderdate</t>
+  </si>
+  <si>
+    <t>FROM Customer c, Orders o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHERE c.custid = o.custid</t>
+  </si>
+  <si>
+    <t>ORDER BY name;</t>
+  </si>
+  <si>
+    <t>SELECT name, SUM(saleprice) 합계</t>
+  </si>
+  <si>
+    <t>GROUP BY c.custid, name</t>
+  </si>
+  <si>
+    <t>ORDER BY name DESC;</t>
+  </si>
+  <si>
+    <t>SELECT *,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT c.*, o.bookid, o.saleprice FROM Customer c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                        LEFT OUTER JOIN Orders o ON c.custid = o.custid;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT c.*, o.bookid, o.saleprice FROM Orders o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                        RIGHT OUTER JOIN Customer c ON c.custid = o.custid;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT * FROM Customer </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Orders </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHERE </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.custid = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.custid;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(SELECT SUM(saleprice) FROM Orders </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHERE </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.custid = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.custid) 구매액</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FROM Customer </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT bookname FROM Book</t>
+  </si>
+  <si>
+    <t>WHERE price = (SELECT MAX(price) FROM Book);</t>
+  </si>
+  <si>
+    <t>FROM Orders;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Orders WHERE COUNT(*) &gt; 2 GROUP BY custid; -- 집계함수를 이용한 조건문은 WHERE 절에는 사용 불가 / 오류 발생</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT ... FROM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                WHERE 절의 비교 연산( =, &gt;, &lt; ... )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">참고) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        집합 연산자 IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                - 다중행 부속질의로 쿼리를 수행</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                - 도서를 구매한 적이 있는 고객의 이름을 검색하시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                SELECT name FROM Customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                WHERE custid IN (SELECT custid FROM Orders);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                FROM 절에 사용되는 SELECT 문</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                - 가상의 테이블 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                - 별칭은 필수로 지정!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                - 부 질의에서 주 질의의 결과 값을 가지고 조건절을 사용하는 부속질의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                - 출판사별로 출판사의 평균 도서 가격보다 비싼 도서를 구하시오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT bookname FROM Book b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        WHERE price &gt; (SELECT AVG(price) FROM Book b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UNION : 합집합,    A - 1,2,3,4, B - 3,4,5,6, A와 B의 합집합? 1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                중복이 없다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        UNION ALL : 합집합, 중복을 허용!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. EXISTS : 부속질의 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                부속질의 결과가 있으면 참!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- 주문 기록이 있는 고객명 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- 내부 조인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT DISTINCT name FROM Customer c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- 부속질의</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT name FROM Customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE custid IN (SELECT custid FROM Orders);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT name FROM Customer c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE EXISTS (SELECT * FROM Orders o WHERE c.custid = o.custid);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              WHERE b1.publisher = b2.publisher);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                INNER JOIN Orders o ON c.custid = o.custid;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>custid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>custid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UNION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 중복이 없다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>custid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>custid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UNION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 중복을 허용</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VALUES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'스포츠 의학'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'한솔의학서적'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>90000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Customer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'대한민국 부산'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>custid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> * </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Imported_Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <r>
+      <t>publisher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>publisher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Imported_Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bookid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bookid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF8E00C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006464"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bookid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -516,7 +2453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,7 +2470,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -541,15 +2494,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -557,6 +2513,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -565,20 +2522,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF1F2328"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF8E00C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006464"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF006464"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -590,35 +2638,75 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="설명 텍스트" xfId="1" builtinId="53"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -931,537 +3019,1979 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF981FA-09F5-413B-BE59-E638641301FE}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1">
+      <c r="A1" s="7"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1"/>
+    <row r="3" spans="1:3" s="8" customFormat="1">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:3" s="8" customFormat="1"/>
+    <row r="5" spans="1:3" s="8" customFormat="1">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:3" s="8" customFormat="1">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:3" s="8" customFormat="1">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="2" t="s">
+    <row r="8" spans="1:3" s="8" customFormat="1"/>
+    <row r="9" spans="1:3" s="8" customFormat="1">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="10" spans="1:3" s="8" customFormat="1"/>
+    <row r="11" spans="1:3" s="8" customFormat="1">
+      <c r="A11" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="8" customFormat="1"/>
+    <row r="13" spans="1:3" s="8" customFormat="1">
+      <c r="A13" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="8" customFormat="1"/>
+    <row r="15" spans="1:3" s="8" customFormat="1">
+      <c r="A15" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="8" customFormat="1"/>
+    <row r="17" spans="1:2" s="8" customFormat="1">
+      <c r="A17" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="8" customFormat="1"/>
+    <row r="19" spans="1:2" s="8" customFormat="1">
+      <c r="A19" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="8" customFormat="1"/>
+    <row r="21" spans="1:2" s="8" customFormat="1">
+      <c r="A21" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="8" customFormat="1"/>
+    <row r="23" spans="1:2" s="8" customFormat="1">
+      <c r="A23" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="8" customFormat="1"/>
+    <row r="25" spans="1:2" s="8" customFormat="1">
+      <c r="A25" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="8" customFormat="1">
+      <c r="A26" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="8" customFormat="1"/>
+    <row r="28" spans="1:2" s="8" customFormat="1">
+      <c r="A28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="8" customFormat="1"/>
+    <row r="30" spans="1:2" s="8" customFormat="1">
+      <c r="A30" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="8" customFormat="1">
+      <c r="A31" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="8" customFormat="1">
+      <c r="B32" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="8" customFormat="1">
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="8" customFormat="1">
+      <c r="C34" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="8" customFormat="1"/>
+    <row r="36" spans="1:3" s="8" customFormat="1"/>
+    <row r="37" spans="1:3" s="8" customFormat="1">
+      <c r="A37" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="8" customFormat="1">
+      <c r="A38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="8" customFormat="1">
+      <c r="A39" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="8" customFormat="1">
+      <c r="A40" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="8" customFormat="1">
+      <c r="A41" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="8" customFormat="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="8" customFormat="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="8" customFormat="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="8" customFormat="1">
+      <c r="A45" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="8" customFormat="1">
+      <c r="A46" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="8" customFormat="1">
+      <c r="A47" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="8" customFormat="1">
+      <c r="A48" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="8" customFormat="1">
+      <c r="A49" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="8" customFormat="1">
+      <c r="A50" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="8" customFormat="1">
+      <c r="A51" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="B62" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="68" spans="1:2">
+      <c r="A68" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="97" spans="1:1">
+      <c r="A97" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+    <row r="122" spans="1:1">
+      <c r="A122" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="11"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="11"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="11"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
-        <v>94</v>
-      </c>
+    <row r="134" spans="1:1">
+      <c r="A134" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="13"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="13"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="11"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="11"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="11"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="11"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="11"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="11"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="11"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="11"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="11"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="11"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="11"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="11"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="11"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="B154" s="14"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="B155" s="15"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="B156" s="15"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="B157" s="15"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="B158" s="15"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="B159" s="15"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="11"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="11"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="11"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="11"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="11"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="11"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="11"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="11"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="11"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="11"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="11"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="13"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="11"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="11"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="11"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1BA2E6-DAC5-42E3-ABE0-2A8166354286}">
+  <dimension ref="A1:N237"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="I208" sqref="I208"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="J92" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="J93" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="N94" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14">
+      <c r="B101" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14">
+      <c r="J102" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14">
+      <c r="J103" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14">
+      <c r="J104" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14">
+      <c r="J105" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14">
+      <c r="B108" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14">
+      <c r="B109" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14">
+      <c r="B110" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14">
+      <c r="B111" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14">
+      <c r="B112" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="C115" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="C126" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="C127" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="C128" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="C129" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="C134" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="C135" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="C136" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="C137" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="C138" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14">
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="2:14">
+      <c r="B162" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14">
+      <c r="B163" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14">
+      <c r="B164" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14">
+      <c r="B165" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14">
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="2:14">
+      <c r="B167" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14">
+      <c r="B168" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N168" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14">
+      <c r="B169" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="N169" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14">
+      <c r="B170" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14">
+      <c r="B171" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14">
+      <c r="B172" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14">
+      <c r="B173" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14">
+      <c r="B174" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14">
+      <c r="B175" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14">
+      <c r="B176" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="17"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="193" spans="2:13">
+      <c r="B193" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="2:13">
+      <c r="B194" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13">
+      <c r="B195" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="M195" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="196" spans="2:13">
+      <c r="B196" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="M196" s="18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="197" spans="2:13">
+      <c r="B197" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="M197" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="198" spans="2:13">
+      <c r="B198" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="199" spans="2:13">
+      <c r="B199" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M199" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="200" spans="2:13">
+      <c r="B200" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="M200" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="201" spans="2:13">
+      <c r="B201" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="M201" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="202" spans="2:13">
+      <c r="B202" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13">
+      <c r="B203" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13">
+      <c r="B204" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13">
+      <c r="B205" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="206" spans="2:13">
+      <c r="B206" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="2:13">
+      <c r="B207" s="17"/>
+    </row>
+    <row r="208" spans="2:13">
+      <c r="B208" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="17"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="C220" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="C221" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="C222" s="2"/>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="C223" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="C224" s="2"/>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" s="2"/>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/프론트앤드 프로그래밍/SQL/필기.xlsx
+++ b/프론트앤드 프로그래밍/SQL/필기.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\장동건\프론트앤드 프로그래밍\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AF4BF-7AEB-4ED6-A76C-A31FCAFD53D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128C2B96-5102-49F3-A38A-F5B65B710473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="2430" windowWidth="18765" windowHeight="11370" activeTab="1" xr2:uid="{4954A73E-6FBD-46B5-BDC3-4A222A8EEBA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4954A73E-6FBD-46B5-BDC3-4A222A8EEBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="4.15" sheetId="1" r:id="rId1"/>
     <sheet name="4.16" sheetId="2" r:id="rId2"/>
+    <sheet name="4.17" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="446">
   <si>
     <t>* 릴레이션 : 행과 열로 구성된 데이터(테이블)</t>
   </si>
@@ -2444,6 +2445,408 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <t>내장함수</t>
+  </si>
+  <si>
+    <t>1. SQL 내장 함수</t>
+  </si>
+  <si>
+    <t>2. 숫자 함수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ABS(...) : 절대값   |-1| -&gt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ROUND(숫자, n) : n 반올림할 위치, 양수 - 소수점 위치, 음수, 0 - 정수부 위치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1) 고객별 평균 주문금액을 백원 단위로 반올림한 값을 구하시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT 값;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT 값 [FROM DUAL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                참고) 오라클 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT 값 FROM DUAL;</t>
+  </si>
+  <si>
+    <t>3. 문자함수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1) CONCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                CONCAT(bookname,'||',publisher)   -&gt; 축구의 역사||굿스포츠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                참고) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ORACLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                CONCAT(bookname, CONCAT('||', publisher)) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                bookname || '||' || publisher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2) LOWER - 대문자 -&gt; 소문자, UPPER - 소문자 -&gt; 대문자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3) LENGTH : 문자열의 바이트 수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4) CHAR_LENGTH : 문자의 갯수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                참고)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                LENGTH : 문자의 갯수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                LENGTHB : 문자열의 바이트 수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        5) TRIM : 공백 제거 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                TRIM (c FROM 문자열) : 문자열에서 c 값을 제거</t>
+  </si>
+  <si>
+    <t>4. 날짜,시간 함수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Date, Time, DateTime 값 -&gt; 문자 형태로 특정 형식 변환</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        문자 형태의 날짜,시간 -&gt; Date, Time, DateTime 형식으로 변환 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SYSDATE() : 현재 시스템 시간, 상수 값 CURRENT_TIMESTAMP, NOW() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ADDDATE(날짜시간, interval) :  interval값이 양수, 날짜를 더하고, 음수이면 날짜를 빼준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DATE() : 날짜만 표시 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TIME() : 시간만 표시 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DATEDIFF(date1, date2) : 날짜의 차이를 반환 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT * FROM Orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE orderdate &gt;= '2014-07-04' AND orderdate &lt;= '2014-07-07';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE orderdate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                BETWEEN STR_TO_DATE('2014/07/04', '%Y/%m/%d') AND '2014-07-07'; </t>
+  </si>
+  <si>
+    <t>5. NULL 값 처리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 값이 없는 상태 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 연산은 값이 있어야 연산이 가능!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - NULL은 연산 불가! (+, -, *, /, ...), 비교 연산 불가!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SELECT * FROM Customer WHERE phone = NULL; -&gt; NULL은 값이 없는 상태이므로 연산이 불가 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - NULL 상태를 체크하는 구문 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                IS NULL : NULL 상태인 값을 가진 레코드만 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                IS NOT NULL :  NULL 상태가 아닌 값을 가진 레코드만 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT * FROM Customer WHERE phone IS NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - IFNULL(컬럼명, 기본값)  : 컬럼이  NULL이면 기본값으로 대체</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ORACLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        NULL, '' -&gt; NULL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                MySQL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        NULL -&gt; NULL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        '' -&gt; 문자열 빈 값</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        - 비어 있는 전화번호 고객을 조회하는 경우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        SELECT * FROM Customer WHERE phone IS NULL OR phone = '';</t>
+  </si>
+  <si>
+    <t>6. 행번호 출력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뷰(DDL)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 가상의 테이블 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">장점 :    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1) 복잡한 SQL의 결과를 단순하게 가상의 테이블 1개로 조회할 수 있게 만들 수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2) 민감한 정보는 뷰를 생성할때 배제 - 보안 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 뷰의 생성 </t>
+  </si>
+  <si>
+    <t>CREATE VIEW 뷰 이름 AS SELECT 문;</t>
+  </si>
+  <si>
+    <t>1) 주소에 '대한민국'을 포함하는 고객들로 구성된 뷰를 만들고 조회하시오. 뷰의 이름은 vw_Customer로 설정하시오.</t>
+  </si>
+  <si>
+    <t>2) Orders 테이블에서 고객이름과 도서이름을 바로 확인할 수 있는 뷰(vw_Orders) 를 생성한 후 '김연아' 고객이 구입한 도서의 주문번호, 도서이름, 주문액을 보이시오.</t>
+  </si>
+  <si>
+    <t>2. 뷰의 수정</t>
+  </si>
+  <si>
+    <t>1) 이미 생성한 뷰 vw_Customer는 주소가 대한민국인 고객을 보여준다. 이 뷰를 영국을 주소로 가진 고객으로 변경하시오. phone 속성은 필요 없으므로 포함시키지 마시오.</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE  VIEW  vw_Customer AS ...</t>
+  </si>
+  <si>
+    <t>-&gt; vw_Customer가 없으면 생성하고 있으면 수정</t>
+  </si>
+  <si>
+    <t>3. 뷰의 삭제</t>
+  </si>
+  <si>
+    <t>DROP VIEW 뷰이름;</t>
+  </si>
+  <si>
+    <t>4. 조회 레코드의 갯수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 문법 </t>
+  </si>
+  <si>
+    <t>SELECT * FROM Orders LIMIT 3;  -&gt; 조회 결과 중 3개의 레코드</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Orders LIMIT 3, 3; -&gt; 4번째 부터 3개의 레코드를 조회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMIT 3 : 3개의 레코드 조회 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMIT 3, 3 : 3번째 레코드 위치부터 3개를 조회 </t>
+  </si>
+  <si>
+    <t>LIMIT 6, 3 : 6번째 레코드 위치부터 3개를 조회</t>
+  </si>
+  <si>
+    <t>위치 번호 0번 부터 시작</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 자동 증감번호 제약 조건 </t>
+  </si>
+  <si>
+    <t>- PRIMARY KEY 주로 쓰임</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- AUTO_INCREMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">인덱스(DDL) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEX - 목차 </t>
+  </si>
+  <si>
+    <t>B-TREE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 원하는 데이터를 찾기 위해 레코드의 키값에 대한 물리적 위치를 기록해 둔 구조 </t>
+  </si>
+  <si>
+    <t>클러스터 인덱스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 기본키</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 기본키가 없는 경우는 UNIQUE 제약조건이 있는 키 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 다 없으면 내부적으로 만든다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">보조 인덱스 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 클러스터 인덱스를 제외한 모든 인덱스</t>
+  </si>
+  <si>
+    <t>1. 인덱스의 특징</t>
+  </si>
+  <si>
+    <t>2. 인덱스의 생성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        CREATE [UNIQUE] INDEX [인덱스이름]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ON 테이블이름 (컬럼 [ASC | DESC] [{, 컬럼 [ASC | DESC]} ...])[;]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1) Book 테이블의 bookname 열을 대상으로 인덱스 ix_Book을 생성하시오</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2) Book 테이블의 publisher, price 열을 대상으로 인덱스 ix_Book2를 생성하시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3) 인덱스 확인 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SHOW INDEX FROM 테이블 명; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        SHOW DATABASES - 현재 사용자가 접근 가능한 데이터베이스 목록 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        SHOW TABLES - 현재 데이터베이스에 있는 테이블 목록 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        DESCRIBE 테이블명 - 테이블 컬럼의 상세 정보</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        (DESC 테이블명) </t>
+  </si>
+  <si>
+    <t>3. 인덱스 재구성과 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 데이터의 수정, 삭제, 삽입이 잦으면 노드의 갱신이 주기적으로 일어나 단편화(fragmentation)현상이 나나난다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - ANALYZE TABLE 테이블명;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 인덱스 삭제</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DROP INDEX  인덱스 명 ON 테이블명;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">함수      </t>
+  </si>
+  <si>
+    <t>프로시저(Procedure)  - 저장프로그램</t>
+  </si>
+  <si>
+    <t>CREATE PROCEDURE 함수명([IN | OUT] 변수명 자료형)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEGIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 수행될 코드 -  변수, 제어문, 반복문, SQL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">END </t>
+  </si>
+  <si>
+    <t>IN 변수명 -&gt; 함수 내부에서만 사용되는 매개변수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT 변수명 -&gt; 함수 외부에서도 접근할 수 있는 매개변수       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL 프로시저 함수명(값....);   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전역변수 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET 변수명 = 값;    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">지역변수 </t>
+  </si>
+  <si>
+    <t>DECLARE 변수명 자료형 DEFAULT 기본값;</t>
+  </si>
+  <si>
+    <t>1. 삽입 작업을 하는 프로시저</t>
+  </si>
+  <si>
+    <t>- Book 테이블에 한 개의 레코드을 삽입하는 프로시저</t>
+  </si>
+  <si>
+    <t>2. 제어문을 사용하는 프로시저</t>
+  </si>
+  <si>
+    <t>- 동일한 도서가 있는지 점검한 후 삽입하는 프로시저</t>
+  </si>
+  <si>
+    <t>3. 결과를 반환하는 프로시저</t>
+  </si>
+  <si>
+    <t>- Book 테이블에 저장된 도서의 평균가격을 반환하는 프로시저</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. 커서를 사용하는 프로시저 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - 여러 데이터를 조회해서 반복해서 결과를 만들어 주는 경우 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Orders 테이블의 판매 도서에 대한 이익을 계산하는 프로시저</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                30000원 이상 이윤 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                그 미만 5% 이윤 </t>
   </si>
 </sst>
 </file>
@@ -2646,7 +3049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2703,6 +3106,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3724,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1BA2E6-DAC5-42E3-ABE0-2A8166354286}">
   <dimension ref="A1:N237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="I208" sqref="I208"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="U156" sqref="U156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4994,4 +5403,979 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E978D73F-0C2F-4CA6-8801-5D6516AB75DF}">
+  <dimension ref="A1:A208"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="L156" sqref="L156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="19"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="19"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="19"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="19"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="19"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="19"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="19"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="19"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="19"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="19"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="19"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="19"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="19"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="19"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="19"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="19"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="20" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="20" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="20" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="19"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="19"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="20" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="20" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="19"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="19"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="19"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>